--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -34086,7 +34086,7 @@
     </row>
     <row r="1230">
       <c r="A1230" s="1" t="n">
-        <v>45446.6494560185</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B1230" t="n">
         <v>9113</v>
@@ -34107,6 +34107,32 @@
         <v>592</v>
       </c>
       <c r="H1230" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="1" t="n">
+        <v>45447.6457407407</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>2282</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>0.499000012874603</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>0.493000000715256</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.499000012874603</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.499000012874603</v>
+      </c>
+      <c r="G1231" t="s">
+        <v>592</v>
+      </c>
+      <c r="H1231" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -34112,7 +34112,7 @@
     </row>
     <row r="1231">
       <c r="A1231" s="1" t="n">
-        <v>45447.6457407407</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B1231" t="n">
         <v>2282</v>
@@ -34133,6 +34133,32 @@
         <v>592</v>
       </c>
       <c r="H1231" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="1" t="n">
+        <v>45448.5698842593</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>33860</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>0.492000013589859</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>0.486000001430511</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.492000013589859</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.492000013589859</v>
+      </c>
+      <c r="G1232" t="s">
+        <v>586</v>
+      </c>
+      <c r="H1232" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="594">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1791,6 +1791,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.499000012874603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.488000005483627</t>
   </si>
 </sst>
 </file>
@@ -34138,7 +34141,7 @@
     </row>
     <row r="1232">
       <c r="A1232" s="1" t="n">
-        <v>45448.5698842593</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B1232" t="n">
         <v>33860</v>
@@ -34159,6 +34162,32 @@
         <v>586</v>
       </c>
       <c r="H1232" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="1" t="n">
+        <v>45449.6390277778</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>27211</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>0.493000000715256</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>0.481000006198883</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.486999988555908</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.488000005483627</v>
+      </c>
+      <c r="G1233" t="s">
+        <v>593</v>
+      </c>
+      <c r="H1233" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="595">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1794,6 +1794,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.488000005483627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.467999994754791</t>
   </si>
 </sst>
 </file>
@@ -34167,7 +34170,7 @@
     </row>
     <row r="1233">
       <c r="A1233" s="1" t="n">
-        <v>45449.6390277778</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B1233" t="n">
         <v>27211</v>
@@ -34188,6 +34191,32 @@
         <v>593</v>
       </c>
       <c r="H1233" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="1" t="n">
+        <v>45450.6494560185</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>77778</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>0.493999987840652</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.493999987840652</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.467999994754791</v>
+      </c>
+      <c r="G1234" t="s">
+        <v>594</v>
+      </c>
+      <c r="H1234" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="596">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1797,6 +1797,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.467999994754791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.465000003576279</t>
   </si>
 </sst>
 </file>
@@ -34196,7 +34199,7 @@
     </row>
     <row r="1234">
       <c r="A1234" s="1" t="n">
-        <v>45450.6494560185</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B1234" t="n">
         <v>77778</v>
@@ -34217,6 +34220,32 @@
         <v>594</v>
       </c>
       <c r="H1234" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="1" t="n">
+        <v>45453.649849537</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>92874</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>0.47299998998642</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>0.437000006437302</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.451999992132187</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.465000003576279</v>
+      </c>
+      <c r="G1235" t="s">
+        <v>595</v>
+      </c>
+      <c r="H1235" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="597">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1800,6 +1800,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.465000003576279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.439000010490417</t>
   </si>
 </sst>
 </file>
@@ -34225,7 +34228,7 @@
     </row>
     <row r="1235">
       <c r="A1235" s="1" t="n">
-        <v>45453.649849537</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B1235" t="n">
         <v>92874</v>
@@ -34246,6 +34249,32 @@
         <v>595</v>
       </c>
       <c r="H1235" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="1" t="n">
+        <v>45455.649525463</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>2551</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>0.439000010490417</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>0.425999999046326</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.439000010490417</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.439000010490417</v>
+      </c>
+      <c r="G1236" t="s">
+        <v>596</v>
+      </c>
+      <c r="H1236" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="598">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1803,6 +1803,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.439000010490417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.449000000953674</t>
   </si>
 </sst>
 </file>
@@ -34254,19 +34257,19 @@
     </row>
     <row r="1236">
       <c r="A1236" s="1" t="n">
-        <v>45455.649525463</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B1236" t="n">
-        <v>2551</v>
+        <v>36657</v>
       </c>
       <c r="C1236" t="n">
-        <v>0.439000010490417</v>
+        <v>0.465000003576279</v>
       </c>
       <c r="D1236" t="n">
-        <v>0.425999999046326</v>
+        <v>0.430999994277954</v>
       </c>
       <c r="E1236" t="n">
-        <v>0.439000010490417</v>
+        <v>0.465000003576279</v>
       </c>
       <c r="F1236" t="n">
         <v>0.439000010490417</v>
@@ -34275,6 +34278,58 @@
         <v>596</v>
       </c>
       <c r="H1236" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>2551</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>0.439000010490417</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>0.425999999046326</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.439000010490417</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.439000010490417</v>
+      </c>
+      <c r="G1237" t="s">
+        <v>596</v>
+      </c>
+      <c r="H1237" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="1" t="n">
+        <v>45456.6496296296</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>35671</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>0.425000011920929</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.425000011920929</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.449000000953674</v>
+      </c>
+      <c r="G1238" t="s">
+        <v>597</v>
+      </c>
+      <c r="H1238" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -34309,7 +34309,7 @@
     </row>
     <row r="1238">
       <c r="A1238" s="1" t="n">
-        <v>45456.6496296296</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B1238" t="n">
         <v>35671</v>
@@ -34330,6 +34330,32 @@
         <v>597</v>
       </c>
       <c r="H1238" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="1" t="n">
+        <v>45457.6494097222</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>10959</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.449000000953674</v>
+      </c>
+      <c r="G1239" t="s">
+        <v>597</v>
+      </c>
+      <c r="H1239" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="599">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1806,6 +1806,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.449000000953674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.449999988079071</t>
   </si>
 </sst>
 </file>
@@ -34335,7 +34338,7 @@
     </row>
     <row r="1239">
       <c r="A1239" s="1" t="n">
-        <v>45457.6494097222</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B1239" t="n">
         <v>10959</v>
@@ -34356,6 +34359,32 @@
         <v>597</v>
       </c>
       <c r="H1239" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="1" t="n">
+        <v>45460.632974537</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>29981</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>0.439999997615814</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.444999992847443</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="G1240" t="s">
+        <v>598</v>
+      </c>
+      <c r="H1240" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1809,6 +1809,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.449999988079071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446999996900558</t>
   </si>
 </sst>
 </file>
@@ -34364,7 +34367,7 @@
     </row>
     <row r="1240">
       <c r="A1240" s="1" t="n">
-        <v>45460.632974537</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B1240" t="n">
         <v>29981</v>
@@ -34385,6 +34388,32 @@
         <v>598</v>
       </c>
       <c r="H1240" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="1" t="n">
+        <v>45461.5673148148</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>18801</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>0.455000013113022</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>0.446000009775162</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.45100000500679</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.446999996900558</v>
+      </c>
+      <c r="G1241" t="s">
+        <v>599</v>
+      </c>
+      <c r="H1241" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -34393,7 +34393,7 @@
     </row>
     <row r="1241">
       <c r="A1241" s="1" t="n">
-        <v>45461.5673148148</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B1241" t="n">
         <v>18801</v>
@@ -34414,6 +34414,32 @@
         <v>599</v>
       </c>
       <c r="H1241" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="1" t="n">
+        <v>45462.4563194444</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>6308</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>0.465000003576279</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>0.45100000500679</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>0.46000000834465</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>0.465000003576279</v>
+      </c>
+      <c r="G1242" t="s">
+        <v>595</v>
+      </c>
+      <c r="H1242" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -34419,7 +34419,7 @@
     </row>
     <row r="1242">
       <c r="A1242" s="1" t="n">
-        <v>45462.4563194444</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B1242" t="n">
         <v>6308</v>
@@ -34440,6 +34440,32 @@
         <v>595</v>
       </c>
       <c r="H1242" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="1" t="n">
+        <v>45463.6240625</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>8833</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>0.465000003576279</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>0.45100000500679</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>0.45100000500679</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>0.465000003576279</v>
+      </c>
+      <c r="G1243" t="s">
+        <v>595</v>
+      </c>
+      <c r="H1243" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -34445,7 +34445,7 @@
     </row>
     <row r="1243">
       <c r="A1243" s="1" t="n">
-        <v>45463.6240625</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B1243" t="n">
         <v>8833</v>
@@ -34466,6 +34466,32 @@
         <v>595</v>
       </c>
       <c r="H1243" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="1" t="n">
+        <v>45464.6493634259</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>11325</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>0.455000013113022</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>0.453999996185303</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>0.455000013113022</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="G1244" t="s">
+        <v>598</v>
+      </c>
+      <c r="H1244" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -34471,7 +34471,7 @@
     </row>
     <row r="1244">
       <c r="A1244" s="1" t="n">
-        <v>45464.6493634259</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B1244" t="n">
         <v>11325</v>
@@ -34480,7 +34480,7 @@
         <v>0.455000013113022</v>
       </c>
       <c r="D1244" t="n">
-        <v>0.453999996185303</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="E1244" t="n">
         <v>0.455000013113022</v>
@@ -34492,6 +34492,32 @@
         <v>598</v>
       </c>
       <c r="H1244" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="1" t="n">
+        <v>45467.5880092593</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>9050</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>0.46900001168251</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>0.446000009775162</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="G1245" t="s">
+        <v>598</v>
+      </c>
+      <c r="H1245" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="601">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1812,6 +1812,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.446999996900558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.458999991416931</t>
   </si>
 </sst>
 </file>
@@ -34497,7 +34500,7 @@
     </row>
     <row r="1245">
       <c r="A1245" s="1" t="n">
-        <v>45467.5880092593</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B1245" t="n">
         <v>9050</v>
@@ -34518,6 +34521,32 @@
         <v>598</v>
       </c>
       <c r="H1245" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="1" t="n">
+        <v>45468.3973263889</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>850</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>0.458999991416931</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>0.458999991416931</v>
+      </c>
+      <c r="G1246" t="s">
+        <v>600</v>
+      </c>
+      <c r="H1246" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -34526,7 +34526,7 @@
     </row>
     <row r="1246">
       <c r="A1246" s="1" t="n">
-        <v>45468.3973263889</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B1246" t="n">
         <v>850</v>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -34550,6 +34550,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1247">
+      <c r="A1247" s="1" t="n">
+        <v>45469.2916666667</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>0.458999991416931</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>0.458999991416931</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>0.458999991416931</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>0.458999991416931</v>
+      </c>
+      <c r="G1247" t="s">
+        <v>600</v>
+      </c>
+      <c r="H1247" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -34576,6 +34576,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1248">
+      <c r="A1248" s="1" t="n">
+        <v>45470.2916666667</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>0.458999991416931</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>0.458999991416931</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>0.458999991416931</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>0.458999991416931</v>
+      </c>
+      <c r="G1248" t="s">
+        <v>600</v>
+      </c>
+      <c r="H1248" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="1" t="n">
+        <v>45471.6373611111</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>0.458999991416931</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>0.458999991416931</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="G1249" t="s">
+        <v>598</v>
+      </c>
+      <c r="H1249" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="602">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1815,6 +1815,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.458999991416931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.453000009059906</t>
   </si>
 </sst>
 </file>
@@ -34604,7 +34607,7 @@
     </row>
     <row r="1249">
       <c r="A1249" s="1" t="n">
-        <v>45471.6373611111</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B1249" t="n">
         <v>4000</v>
@@ -34625,6 +34628,32 @@
         <v>598</v>
       </c>
       <c r="H1249" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="1" t="n">
+        <v>45474.580150463</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>7435</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>0.458999991416931</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>0.444000005722046</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>0.458999991416931</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>0.453000009059906</v>
+      </c>
+      <c r="G1250" t="s">
+        <v>601</v>
+      </c>
+      <c r="H1250" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -34633,7 +34633,7 @@
     </row>
     <row r="1250">
       <c r="A1250" s="1" t="n">
-        <v>45474.580150463</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B1250" t="n">
         <v>7435</v>
@@ -34645,7 +34645,7 @@
         <v>0.444000005722046</v>
       </c>
       <c r="E1250" t="n">
-        <v>0.458999991416931</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="F1250" t="n">
         <v>0.453000009059906</v>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="603">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1818,6 +1818,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.453000009059906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430000007152557</t>
   </si>
 </sst>
 </file>
@@ -34657,6 +34660,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1251">
+      <c r="A1251" s="1" t="n">
+        <v>45475.2916666667</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>0.453000009059906</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>0.453000009059906</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>0.453000009059906</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>0.453000009059906</v>
+      </c>
+      <c r="G1251" t="s">
+        <v>601</v>
+      </c>
+      <c r="H1251" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="1" t="n">
+        <v>45476.649525463</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>36152</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>0.451999992132187</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>0.425000011920929</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>0.435999989509583</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>0.430000007152557</v>
+      </c>
+      <c r="G1252" t="s">
+        <v>602</v>
+      </c>
+      <c r="H1252" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -34688,7 +34688,7 @@
     </row>
     <row r="1252">
       <c r="A1252" s="1" t="n">
-        <v>45476.649525463</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B1252" t="n">
         <v>36152</v>
@@ -34709,6 +34709,32 @@
         <v>602</v>
       </c>
       <c r="H1252" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="1" t="n">
+        <v>45477.6309953704</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>21153</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>0.449000000953674</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>0.439999997615814</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>0.444000005722046</v>
+      </c>
+      <c r="F1253" t="n">
+        <v>0.446999996900558</v>
+      </c>
+      <c r="G1253" t="s">
+        <v>599</v>
+      </c>
+      <c r="H1253" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="604">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1821,6 +1821,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.430000007152557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45100000500679</t>
   </si>
 </sst>
 </file>
@@ -34714,7 +34717,7 @@
     </row>
     <row r="1253">
       <c r="A1253" s="1" t="n">
-        <v>45477.6309953704</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B1253" t="n">
         <v>21153</v>
@@ -34735,6 +34738,32 @@
         <v>599</v>
       </c>
       <c r="H1253" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="1" t="n">
+        <v>45478.6193055556</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>7100</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>0.45100000500679</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>0.441000014543533</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>0.441000014543533</v>
+      </c>
+      <c r="F1254" t="n">
+        <v>0.45100000500679</v>
+      </c>
+      <c r="G1254" t="s">
+        <v>603</v>
+      </c>
+      <c r="H1254" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="605">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1824,6 +1824,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.45100000500679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.425999999046326</t>
   </si>
 </sst>
 </file>
@@ -34743,7 +34746,7 @@
     </row>
     <row r="1254">
       <c r="A1254" s="1" t="n">
-        <v>45478.6193055556</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B1254" t="n">
         <v>7100</v>
@@ -34764,6 +34767,32 @@
         <v>603</v>
       </c>
       <c r="H1254" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="1" t="n">
+        <v>45481.6495949074</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>52363</v>
+      </c>
+      <c r="C1255" t="n">
+        <v>0.453000009059906</v>
+      </c>
+      <c r="D1255" t="n">
+        <v>0.430000007152557</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>0.44200000166893</v>
+      </c>
+      <c r="F1255" t="n">
+        <v>0.425999999046326</v>
+      </c>
+      <c r="G1255" t="s">
+        <v>604</v>
+      </c>
+      <c r="H1255" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="606">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1827,6 +1827,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.425999999046326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435000002384186</t>
   </si>
 </sst>
 </file>
@@ -34772,7 +34775,7 @@
     </row>
     <row r="1255">
       <c r="A1255" s="1" t="n">
-        <v>45481.6495949074</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B1255" t="n">
         <v>52363</v>
@@ -34781,7 +34784,7 @@
         <v>0.453000009059906</v>
       </c>
       <c r="D1255" t="n">
-        <v>0.430000007152557</v>
+        <v>0.425999999046326</v>
       </c>
       <c r="E1255" t="n">
         <v>0.44200000166893</v>
@@ -34793,6 +34796,32 @@
         <v>604</v>
       </c>
       <c r="H1255" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="1" t="n">
+        <v>45482.6495833333</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>60612</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>0.46000000834465</v>
+      </c>
+      <c r="D1256" t="n">
+        <v>0.441000014543533</v>
+      </c>
+      <c r="E1256" t="n">
+        <v>0.441000014543533</v>
+      </c>
+      <c r="F1256" t="n">
+        <v>0.435000002384186</v>
+      </c>
+      <c r="G1256" t="s">
+        <v>605</v>
+      </c>
+      <c r="H1256" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="607">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1830,6 +1830,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.435000002384186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448000013828278</t>
   </si>
 </sst>
 </file>
@@ -34801,7 +34804,7 @@
     </row>
     <row r="1256">
       <c r="A1256" s="1" t="n">
-        <v>45482.6495833333</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B1256" t="n">
         <v>60612</v>
@@ -34810,7 +34813,7 @@
         <v>0.46000000834465</v>
       </c>
       <c r="D1256" t="n">
-        <v>0.441000014543533</v>
+        <v>0.425000011920929</v>
       </c>
       <c r="E1256" t="n">
         <v>0.441000014543533</v>
@@ -34822,6 +34825,32 @@
         <v>605</v>
       </c>
       <c r="H1256" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="1" t="n">
+        <v>45483.3162962963</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>50</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="D1257" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="F1257" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="G1257" t="s">
+        <v>606</v>
+      </c>
+      <c r="H1257" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="608">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1833,6 +1833,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.448000013828278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.428999990224838</t>
   </si>
 </sst>
 </file>
@@ -34830,7 +34833,7 @@
     </row>
     <row r="1257">
       <c r="A1257" s="1" t="n">
-        <v>45483.3162962963</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B1257" t="n">
         <v>50</v>
@@ -34851,6 +34854,32 @@
         <v>606</v>
       </c>
       <c r="H1257" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="1" t="n">
+        <v>45484.6493171296</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>2626</v>
+      </c>
+      <c r="C1258" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="D1258" t="n">
+        <v>0.428999990224838</v>
+      </c>
+      <c r="E1258" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="F1258" t="n">
+        <v>0.428999990224838</v>
+      </c>
+      <c r="G1258" t="s">
+        <v>607</v>
+      </c>
+      <c r="H1258" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -34859,7 +34859,7 @@
     </row>
     <row r="1258">
       <c r="A1258" s="1" t="n">
-        <v>45484.6493171296</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B1258" t="n">
         <v>2626</v>
@@ -34880,6 +34880,32 @@
         <v>607</v>
       </c>
       <c r="H1258" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="1" t="n">
+        <v>45485.649537037</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>3023</v>
+      </c>
+      <c r="C1259" t="n">
+        <v>0.451999992132187</v>
+      </c>
+      <c r="D1259" t="n">
+        <v>0.43299999833107</v>
+      </c>
+      <c r="E1259" t="n">
+        <v>0.442999988794327</v>
+      </c>
+      <c r="F1259" t="n">
+        <v>0.430000007152557</v>
+      </c>
+      <c r="G1259" t="s">
+        <v>602</v>
+      </c>
+      <c r="H1259" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="609">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1836,6 +1836,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.428999990224838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.439999997615814</t>
   </si>
 </sst>
 </file>
@@ -34885,7 +34888,7 @@
     </row>
     <row r="1259">
       <c r="A1259" s="1" t="n">
-        <v>45485.649537037</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B1259" t="n">
         <v>3023</v>
@@ -34894,7 +34897,7 @@
         <v>0.451999992132187</v>
       </c>
       <c r="D1259" t="n">
-        <v>0.43299999833107</v>
+        <v>0.430000007152557</v>
       </c>
       <c r="E1259" t="n">
         <v>0.442999988794327</v>
@@ -34906,6 +34909,32 @@
         <v>602</v>
       </c>
       <c r="H1259" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="1" t="n">
+        <v>45488.6494675926</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>3450</v>
+      </c>
+      <c r="C1260" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="D1260" t="n">
+        <v>0.430000007152557</v>
+      </c>
+      <c r="E1260" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="F1260" t="n">
+        <v>0.439999997615814</v>
+      </c>
+      <c r="G1260" t="s">
+        <v>608</v>
+      </c>
+      <c r="H1260" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="610">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1839,6 +1839,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.439999997615814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446000009775162</t>
   </si>
 </sst>
 </file>
@@ -34914,7 +34917,7 @@
     </row>
     <row r="1260">
       <c r="A1260" s="1" t="n">
-        <v>45488.6494675926</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B1260" t="n">
         <v>3450</v>
@@ -34935,6 +34938,32 @@
         <v>608</v>
       </c>
       <c r="H1260" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="1" t="n">
+        <v>45489.6283912037</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>12896</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>0.446000009775162</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>0.439999997615814</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>0.439999997615814</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>0.446000009775162</v>
+      </c>
+      <c r="G1261" t="s">
+        <v>609</v>
+      </c>
+      <c r="H1261" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -34943,7 +34943,7 @@
     </row>
     <row r="1261">
       <c r="A1261" s="1" t="n">
-        <v>45489.6283912037</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B1261" t="n">
         <v>12896</v>
@@ -34964,6 +34964,32 @@
         <v>609</v>
       </c>
       <c r="H1261" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="1" t="n">
+        <v>45490.6494212963</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>15938</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>0.430999994277954</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="G1262" t="s">
+        <v>598</v>
+      </c>
+      <c r="H1262" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="611">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1842,6 +1842,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.446000009775162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430999994277954</t>
   </si>
 </sst>
 </file>
@@ -34969,7 +34972,7 @@
     </row>
     <row r="1262">
       <c r="A1262" s="1" t="n">
-        <v>45490.6494212963</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B1262" t="n">
         <v>15938</v>
@@ -34990,6 +34993,32 @@
         <v>598</v>
       </c>
       <c r="H1262" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="1" t="n">
+        <v>45491.6493287037</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>1689</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>0.430999994277954</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>0.430999994277954</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>0.430999994277954</v>
+      </c>
+      <c r="G1263" t="s">
+        <v>610</v>
+      </c>
+      <c r="H1263" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -34998,7 +34998,7 @@
     </row>
     <row r="1263">
       <c r="A1263" s="1" t="n">
-        <v>45491.6493287037</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B1263" t="n">
         <v>1689</v>
@@ -35019,6 +35019,32 @@
         <v>610</v>
       </c>
       <c r="H1263" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="1" t="n">
+        <v>45492.635474537</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>7600</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>0.449000000953674</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>0.432000011205673</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>0.439999997615814</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="G1264" t="s">
+        <v>606</v>
+      </c>
+      <c r="H1264" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35024,7 +35024,7 @@
     </row>
     <row r="1264">
       <c r="A1264" s="1" t="n">
-        <v>45492.635474537</v>
+        <v>45492.2916666667</v>
       </c>
       <c r="B1264" t="n">
         <v>7600</v>
@@ -35045,6 +35045,32 @@
         <v>606</v>
       </c>
       <c r="H1264" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="1" t="n">
+        <v>45495.3357638889</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>70</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>0.432000011205673</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>0.432000011205673</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="G1265" t="s">
+        <v>606</v>
+      </c>
+      <c r="H1265" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35050,7 +35050,7 @@
     </row>
     <row r="1265">
       <c r="A1265" s="1" t="n">
-        <v>45495.3357638889</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B1265" t="n">
         <v>70</v>
@@ -35071,6 +35071,32 @@
         <v>606</v>
       </c>
       <c r="H1265" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="1" t="n">
+        <v>45496.449849537</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>7234</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>0.430999994277954</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>0.441000014543533</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="G1266" t="s">
+        <v>606</v>
+      </c>
+      <c r="H1266" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="612">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1845,6 +1845,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.430999994277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476000010967255</t>
   </si>
 </sst>
 </file>
@@ -35076,7 +35079,7 @@
     </row>
     <row r="1266">
       <c r="A1266" s="1" t="n">
-        <v>45496.449849537</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B1266" t="n">
         <v>7234</v>
@@ -35097,6 +35100,32 @@
         <v>606</v>
       </c>
       <c r="H1266" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="1" t="n">
+        <v>45497.6494444444</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>227556</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>0.499000012874603</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>0.476000010967255</v>
+      </c>
+      <c r="G1267" t="s">
+        <v>611</v>
+      </c>
+      <c r="H1267" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="613">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1848,6 +1848,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.476000010967255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.469999998807907</t>
   </si>
 </sst>
 </file>
@@ -35105,7 +35108,7 @@
     </row>
     <row r="1267">
       <c r="A1267" s="1" t="n">
-        <v>45497.6494444444</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B1267" t="n">
         <v>227556</v>
@@ -35126,6 +35129,32 @@
         <v>611</v>
       </c>
       <c r="H1267" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="1" t="n">
+        <v>45498.6494212963</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>33787</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>0.490000009536743</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>0.451999992132187</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>0.470999985933304</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>0.469999998807907</v>
+      </c>
+      <c r="G1268" t="s">
+        <v>612</v>
+      </c>
+      <c r="H1268" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="614">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1851,6 +1851,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.469999998807907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.455000013113022</t>
   </si>
 </sst>
 </file>
@@ -35134,7 +35137,7 @@
     </row>
     <row r="1268">
       <c r="A1268" s="1" t="n">
-        <v>45498.6494212963</v>
+        <v>45498.2916666667</v>
       </c>
       <c r="B1268" t="n">
         <v>33787</v>
@@ -35155,6 +35158,32 @@
         <v>612</v>
       </c>
       <c r="H1268" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="1" t="n">
+        <v>45499.6494791667</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>4059</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>0.474999994039536</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>0.456000000238419</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>0.474000006914139</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>0.455000013113022</v>
+      </c>
+      <c r="G1269" t="s">
+        <v>613</v>
+      </c>
+      <c r="H1269" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35163,7 +35163,7 @@
     </row>
     <row r="1269">
       <c r="A1269" s="1" t="n">
-        <v>45499.6494791667</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B1269" t="n">
         <v>4059</v>
@@ -35172,7 +35172,7 @@
         <v>0.474999994039536</v>
       </c>
       <c r="D1269" t="n">
-        <v>0.456000000238419</v>
+        <v>0.455000013113022</v>
       </c>
       <c r="E1269" t="n">
         <v>0.474000006914139</v>
@@ -35184,6 +35184,32 @@
         <v>613</v>
       </c>
       <c r="H1269" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="1" t="n">
+        <v>45502.6496064815</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>41700</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>0.469999998807907</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>0.439999997615814</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>0.439999997615814</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>0.469999998807907</v>
+      </c>
+      <c r="G1270" t="s">
+        <v>612</v>
+      </c>
+      <c r="H1270" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="615">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1854,6 +1854,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.455000013113022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.490000009536743</t>
   </si>
 </sst>
 </file>
@@ -35189,7 +35192,7 @@
     </row>
     <row r="1270">
       <c r="A1270" s="1" t="n">
-        <v>45502.6496064815</v>
+        <v>45502.2916666667</v>
       </c>
       <c r="B1270" t="n">
         <v>41700</v>
@@ -35210,6 +35213,32 @@
         <v>612</v>
       </c>
       <c r="H1270" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="1" t="n">
+        <v>45503.649375</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>29500</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>0.469999998807907</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>0.469999998807907</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>0.490000009536743</v>
+      </c>
+      <c r="G1271" t="s">
+        <v>614</v>
+      </c>
+      <c r="H1271" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="616">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1857,6 +1857,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.490000009536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.479000002145767</t>
   </si>
 </sst>
 </file>
@@ -35218,7 +35221,7 @@
     </row>
     <row r="1271">
       <c r="A1271" s="1" t="n">
-        <v>45503.649375</v>
+        <v>45503.2916666667</v>
       </c>
       <c r="B1271" t="n">
         <v>29500</v>
@@ -35239,6 +35242,32 @@
         <v>614</v>
       </c>
       <c r="H1271" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="1" t="n">
+        <v>45504.629837963</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>1670</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>0.479999989271164</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>0.469999998807907</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>0.469999998807907</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>0.479000002145767</v>
+      </c>
+      <c r="G1272" t="s">
+        <v>615</v>
+      </c>
+      <c r="H1272" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35247,7 +35247,7 @@
     </row>
     <row r="1272">
       <c r="A1272" s="1" t="n">
-        <v>45504.629837963</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B1272" t="n">
         <v>1670</v>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35271,6 +35271,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1273">
+      <c r="A1273" s="1" t="n">
+        <v>45505.2916666667</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>0.479000002145767</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>0.479000002145767</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>0.479000002145767</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>0.479000002145767</v>
+      </c>
+      <c r="G1273" t="s">
+        <v>615</v>
+      </c>
+      <c r="H1273" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="1" t="n">
+        <v>45506.3940740741</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>13411</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>0.479999989271164</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>0.469999998807907</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>0.469999998807907</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>0.479999989271164</v>
+      </c>
+      <c r="G1274" t="s">
+        <v>579</v>
+      </c>
+      <c r="H1274" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35299,7 +35299,7 @@
     </row>
     <row r="1274">
       <c r="A1274" s="1" t="n">
-        <v>45506.3940740741</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B1274" t="n">
         <v>13411</v>
@@ -35320,6 +35320,32 @@
         <v>579</v>
       </c>
       <c r="H1274" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="1" t="n">
+        <v>45509.5127083333</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>101022</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>0.465000003576279</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>0.419999986886978</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>0.465000003576279</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="G1275" t="s">
+        <v>598</v>
+      </c>
+      <c r="H1275" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35325,10 +35325,10 @@
     </row>
     <row r="1275">
       <c r="A1275" s="1" t="n">
-        <v>45509.5127083333</v>
+        <v>45509.6493055556</v>
       </c>
       <c r="B1275" t="n">
-        <v>101022</v>
+        <v>104468</v>
       </c>
       <c r="C1275" t="n">
         <v>0.465000003576279</v>
@@ -35340,10 +35340,10 @@
         <v>0.465000003576279</v>
       </c>
       <c r="F1275" t="n">
-        <v>0.449999988079071</v>
+        <v>0.430000007152557</v>
       </c>
       <c r="G1275" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35325,7 +35325,7 @@
     </row>
     <row r="1275">
       <c r="A1275" s="1" t="n">
-        <v>45509.6493055556</v>
+        <v>45509.2916666667</v>
       </c>
       <c r="B1275" t="n">
         <v>104468</v>
@@ -35346,6 +35346,58 @@
         <v>602</v>
       </c>
       <c r="H1275" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="1" t="n">
+        <v>45510.2916666667</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>850</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>0.446000009775162</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>0.446000009775162</v>
+      </c>
+      <c r="G1276" t="s">
+        <v>609</v>
+      </c>
+      <c r="H1276" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="1" t="n">
+        <v>45511.649375</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>704</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>0.446999996900558</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>0.444999992847443</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>0.444999992847443</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>0.446999996900558</v>
+      </c>
+      <c r="G1277" t="s">
+        <v>599</v>
+      </c>
+      <c r="H1277" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35377,7 +35377,7 @@
     </row>
     <row r="1277">
       <c r="A1277" s="1" t="n">
-        <v>45511.649375</v>
+        <v>45511.2916666667</v>
       </c>
       <c r="B1277" t="n">
         <v>704</v>
@@ -35398,6 +35398,32 @@
         <v>599</v>
       </c>
       <c r="H1277" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="1" t="n">
+        <v>45512.5580092593</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>8729</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>0.430000007152557</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>0.446999996900558</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>0.446999996900558</v>
+      </c>
+      <c r="G1278" t="s">
+        <v>599</v>
+      </c>
+      <c r="H1278" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35403,7 +35403,7 @@
     </row>
     <row r="1278">
       <c r="A1278" s="1" t="n">
-        <v>45512.5580092593</v>
+        <v>45512.2916666667</v>
       </c>
       <c r="B1278" t="n">
         <v>8729</v>
@@ -35424,6 +35424,32 @@
         <v>599</v>
       </c>
       <c r="H1278" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="1" t="n">
+        <v>45513.6379282407</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>53501</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>0.449000000953674</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>0.418000012636185</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>0.428000003099442</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>0.449000000953674</v>
+      </c>
+      <c r="G1279" t="s">
+        <v>597</v>
+      </c>
+      <c r="H1279" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="617">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1860,6 +1860,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.479000002145767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.426999986171722</t>
   </si>
 </sst>
 </file>
@@ -35429,7 +35432,7 @@
     </row>
     <row r="1279">
       <c r="A1279" s="1" t="n">
-        <v>45513.6379282407</v>
+        <v>45513.2916666667</v>
       </c>
       <c r="B1279" t="n">
         <v>53501</v>
@@ -35450,6 +35453,32 @@
         <v>597</v>
       </c>
       <c r="H1279" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="1" t="n">
+        <v>45516.6494444444</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>11473</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>0.430000007152557</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1280" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1280" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="618">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1863,6 +1863,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.426999986171722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.437999993562698</t>
   </si>
 </sst>
 </file>
@@ -35458,7 +35461,7 @@
     </row>
     <row r="1280">
       <c r="A1280" s="1" t="n">
-        <v>45516.6494444444</v>
+        <v>45516.2916666667</v>
       </c>
       <c r="B1280" t="n">
         <v>11473</v>
@@ -35467,7 +35470,7 @@
         <v>0.448000013828278</v>
       </c>
       <c r="D1280" t="n">
-        <v>0.430000007152557</v>
+        <v>0.426999986171722</v>
       </c>
       <c r="E1280" t="n">
         <v>0.448000013828278</v>
@@ -35479,6 +35482,32 @@
         <v>616</v>
       </c>
       <c r="H1280" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="1" t="n">
+        <v>45517.6189236111</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>5050</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>0.439000010490417</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>0.42399999499321</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>0.439000010490417</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>0.437999993562698</v>
+      </c>
+      <c r="G1281" t="s">
+        <v>617</v>
+      </c>
+      <c r="H1281" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35487,7 +35487,7 @@
     </row>
     <row r="1281">
       <c r="A1281" s="1" t="n">
-        <v>45517.6189236111</v>
+        <v>45517.2916666667</v>
       </c>
       <c r="B1281" t="n">
         <v>5050</v>
@@ -35508,6 +35508,32 @@
         <v>617</v>
       </c>
       <c r="H1281" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="1" t="n">
+        <v>45518.6193402778</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>13547</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>0.446000009775162</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>0.430000007152557</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>0.430999994277954</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>0.439000010490417</v>
+      </c>
+      <c r="G1282" t="s">
+        <v>596</v>
+      </c>
+      <c r="H1282" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35513,7 +35513,7 @@
     </row>
     <row r="1282">
       <c r="A1282" s="1" t="n">
-        <v>45518.6193402778</v>
+        <v>45518.2916666667</v>
       </c>
       <c r="B1282" t="n">
         <v>13547</v>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="619">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1866,6 +1866,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.437999993562698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.428000003099442</t>
   </si>
 </sst>
 </file>
@@ -35537,6 +35540,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1283">
+      <c r="A1283" s="1" t="n">
+        <v>45520.6452777778</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>2165</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>0.446000009775162</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>0.428000003099442</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>0.446000009775162</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>0.428000003099442</v>
+      </c>
+      <c r="G1283" t="s">
+        <v>618</v>
+      </c>
+      <c r="H1283" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="620">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1869,6 +1869,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.428000003099442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435999989509583</t>
   </si>
 </sst>
 </file>
@@ -35542,7 +35545,7 @@
     </row>
     <row r="1283">
       <c r="A1283" s="1" t="n">
-        <v>45520.6452777778</v>
+        <v>45520.2916666667</v>
       </c>
       <c r="B1283" t="n">
         <v>2165</v>
@@ -35563,6 +35566,32 @@
         <v>618</v>
       </c>
       <c r="H1283" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="1" t="n">
+        <v>45523.6495833333</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>3437</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>0.421000003814697</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>0.421000003814697</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>0.421000003814697</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>0.435999989509583</v>
+      </c>
+      <c r="G1284" t="s">
+        <v>619</v>
+      </c>
+      <c r="H1284" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="621">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1872,6 +1872,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.435999989509583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.437000006437302</t>
   </si>
 </sst>
 </file>
@@ -35571,13 +35574,13 @@
     </row>
     <row r="1284">
       <c r="A1284" s="1" t="n">
-        <v>45523.6495833333</v>
+        <v>45523.2916666667</v>
       </c>
       <c r="B1284" t="n">
         <v>3437</v>
       </c>
       <c r="C1284" t="n">
-        <v>0.421000003814697</v>
+        <v>0.435999989509583</v>
       </c>
       <c r="D1284" t="n">
         <v>0.421000003814697</v>
@@ -35592,6 +35595,32 @@
         <v>619</v>
       </c>
       <c r="H1284" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="1" t="n">
+        <v>45524.645775463</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>8702</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>0.446000009775162</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>0.430000007152557</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>0.435999989509583</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>0.437000006437302</v>
+      </c>
+      <c r="G1285" t="s">
+        <v>620</v>
+      </c>
+      <c r="H1285" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="622">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1875,6 +1875,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.437000006437302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44200000166893</t>
   </si>
 </sst>
 </file>
@@ -35600,7 +35603,7 @@
     </row>
     <row r="1285">
       <c r="A1285" s="1" t="n">
-        <v>45524.645775463</v>
+        <v>45524.2916666667</v>
       </c>
       <c r="B1285" t="n">
         <v>8702</v>
@@ -35621,6 +35624,32 @@
         <v>620</v>
       </c>
       <c r="H1285" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="1" t="n">
+        <v>45525.6026967593</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>95410</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>0.469999998807907</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>0.437999993562698</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>0.437999993562698</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>0.44200000166893</v>
+      </c>
+      <c r="G1286" t="s">
+        <v>621</v>
+      </c>
+      <c r="H1286" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35629,7 +35629,7 @@
     </row>
     <row r="1286">
       <c r="A1286" s="1" t="n">
-        <v>45525.6026967593</v>
+        <v>45525.2916666667</v>
       </c>
       <c r="B1286" t="n">
         <v>95410</v>
@@ -35650,6 +35650,32 @@
         <v>621</v>
       </c>
       <c r="H1286" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="1" t="n">
+        <v>45526.645474537</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>19479</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>0.453999996185303</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>0.439999997615814</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>0.439999997615814</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>0.45100000500679</v>
+      </c>
+      <c r="G1287" t="s">
+        <v>603</v>
+      </c>
+      <c r="H1287" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35655,7 +35655,7 @@
     </row>
     <row r="1287">
       <c r="A1287" s="1" t="n">
-        <v>45526.645474537</v>
+        <v>45526.2916666667</v>
       </c>
       <c r="B1287" t="n">
         <v>19479</v>
@@ -35676,6 +35676,32 @@
         <v>603</v>
       </c>
       <c r="H1287" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="1" t="n">
+        <v>45527.604224537</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>5050</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>0.455000013113022</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>0.449000000953674</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>0.455000013113022</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="G1288" t="s">
+        <v>598</v>
+      </c>
+      <c r="H1288" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="623">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1878,6 +1878,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.44200000166893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460999995470047</t>
   </si>
 </sst>
 </file>
@@ -35681,7 +35684,7 @@
     </row>
     <row r="1288">
       <c r="A1288" s="1" t="n">
-        <v>45527.604224537</v>
+        <v>45527.2916666667</v>
       </c>
       <c r="B1288" t="n">
         <v>5050</v>
@@ -35702,6 +35705,32 @@
         <v>598</v>
       </c>
       <c r="H1288" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="1" t="n">
+        <v>45530.6493634259</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>26501</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>0.477999985218048</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>0.448000013828278</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>0.460999995470047</v>
+      </c>
+      <c r="G1289" t="s">
+        <v>622</v>
+      </c>
+      <c r="H1289" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35710,7 +35710,7 @@
     </row>
     <row r="1289">
       <c r="A1289" s="1" t="n">
-        <v>45530.6493634259</v>
+        <v>45530.2916666667</v>
       </c>
       <c r="B1289" t="n">
         <v>26501</v>
@@ -35731,6 +35731,32 @@
         <v>622</v>
       </c>
       <c r="H1289" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="1" t="n">
+        <v>45531.6496412037</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>11959</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>0.479999989271164</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>0.476999998092651</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>0.476999998092651</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>0.469999998807907</v>
+      </c>
+      <c r="G1290" t="s">
+        <v>612</v>
+      </c>
+      <c r="H1290" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35736,7 +35736,7 @@
     </row>
     <row r="1290">
       <c r="A1290" s="1" t="n">
-        <v>45531.6496412037</v>
+        <v>45531.2916666667</v>
       </c>
       <c r="B1290" t="n">
         <v>11959</v>
@@ -35745,7 +35745,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="D1290" t="n">
-        <v>0.476999998092651</v>
+        <v>0.469999998807907</v>
       </c>
       <c r="E1290" t="n">
         <v>0.476999998092651</v>
@@ -35757,6 +35757,32 @@
         <v>612</v>
       </c>
       <c r="H1290" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="1" t="n">
+        <v>45532.6493981481</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>269665</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>0.460999995470047</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>0.479999989271164</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1291" t="s">
+        <v>577</v>
+      </c>
+      <c r="H1291" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="624">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1881,6 +1881,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.460999995470047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.606000006198883</t>
   </si>
 </sst>
 </file>
@@ -35762,7 +35765,7 @@
     </row>
     <row r="1291">
       <c r="A1291" s="1" t="n">
-        <v>45532.6493981481</v>
+        <v>45532.2916666667</v>
       </c>
       <c r="B1291" t="n">
         <v>269665</v>
@@ -35783,6 +35786,32 @@
         <v>577</v>
       </c>
       <c r="H1291" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="1" t="n">
+        <v>45533.5430555556</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>224953</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>0.606000006198883</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>0.606000006198883</v>
+      </c>
+      <c r="G1292" t="s">
+        <v>623</v>
+      </c>
+      <c r="H1292" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="625">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1884,6 +1884,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.606000006198883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.547999978065491</t>
   </si>
 </sst>
 </file>
@@ -1891,7 +1894,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1929,7 +1932,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -35791,7 +35794,7 @@
     </row>
     <row r="1292">
       <c r="A1292" s="1" t="n">
-        <v>45533.5430555556</v>
+        <v>45533.2916666667</v>
       </c>
       <c r="B1292" t="n">
         <v>224953</v>
@@ -35812,6 +35815,32 @@
         <v>623</v>
       </c>
       <c r="H1292" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="1" t="n">
+        <v>45534.6495601852</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>543346</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>0.709999978542328</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>0.544000029563904</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>0.649999976158142</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>0.547999978065491</v>
+      </c>
+      <c r="G1293" t="s">
+        <v>624</v>
+      </c>
+      <c r="H1293" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="626">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1887,6 +1887,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.547999978065491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.529999971389771</t>
   </si>
 </sst>
 </file>
@@ -35820,7 +35823,7 @@
     </row>
     <row r="1293">
       <c r="A1293" s="1" t="n">
-        <v>45534.6495601852</v>
+        <v>45534.2916666667</v>
       </c>
       <c r="B1293" t="n">
         <v>543346</v>
@@ -35841,6 +35844,32 @@
         <v>624</v>
       </c>
       <c r="H1293" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="1" t="n">
+        <v>45537.649525463</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>195299</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>0.512000024318695</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>0.560000002384186</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>0.529999971389771</v>
+      </c>
+      <c r="G1294" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1294" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35849,7 +35849,7 @@
     </row>
     <row r="1294">
       <c r="A1294" s="1" t="n">
-        <v>45537.649525463</v>
+        <v>45537.2916666667</v>
       </c>
       <c r="B1294" t="n">
         <v>195299</v>
@@ -35870,6 +35870,32 @@
         <v>625</v>
       </c>
       <c r="H1294" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="1" t="n">
+        <v>45538.649525463</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>55121</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>0.546000003814697</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>0.501999974250793</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>0.529999971389771</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>0.519999980926514</v>
+      </c>
+      <c r="G1295" t="s">
+        <v>582</v>
+      </c>
+      <c r="H1295" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35875,7 +35875,7 @@
     </row>
     <row r="1295">
       <c r="A1295" s="1" t="n">
-        <v>45538.649525463</v>
+        <v>45538.2916666667</v>
       </c>
       <c r="B1295" t="n">
         <v>55121</v>
@@ -35896,6 +35896,32 @@
         <v>582</v>
       </c>
       <c r="H1295" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="1" t="n">
+        <v>45539.6525231482</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>141442</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>0.568000018596649</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>0.492000013589859</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>0.519999980926514</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>0.541999995708466</v>
+      </c>
+      <c r="G1296" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1296" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35901,7 +35901,7 @@
     </row>
     <row r="1296">
       <c r="A1296" s="1" t="n">
-        <v>45539.6525231482</v>
+        <v>45539.2916666667</v>
       </c>
       <c r="B1296" t="n">
         <v>141442</v>
@@ -35922,6 +35922,32 @@
         <v>575</v>
       </c>
       <c r="H1296" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="1" t="n">
+        <v>45540.6494097222</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>155419</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>0.569999992847443</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>0.544000029563904</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1297" t="s">
+        <v>577</v>
+      </c>
+      <c r="H1297" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35927,7 +35927,7 @@
     </row>
     <row r="1297">
       <c r="A1297" s="1" t="n">
-        <v>45540.6494097222</v>
+        <v>45540.2916666667</v>
       </c>
       <c r="B1297" t="n">
         <v>155419</v>
@@ -35948,6 +35948,32 @@
         <v>577</v>
       </c>
       <c r="H1297" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="1" t="n">
+        <v>45541.6495138889</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>18933</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>0.509999990463257</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>0.490000009536743</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>0.509999990463257</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>0.499000012874603</v>
+      </c>
+      <c r="G1298" t="s">
+        <v>592</v>
+      </c>
+      <c r="H1298" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35953,7 +35953,7 @@
     </row>
     <row r="1298">
       <c r="A1298" s="1" t="n">
-        <v>45541.6495138889</v>
+        <v>45541.2916666667</v>
       </c>
       <c r="B1298" t="n">
         <v>18933</v>
@@ -35974,6 +35974,32 @@
         <v>592</v>
       </c>
       <c r="H1298" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="1" t="n">
+        <v>45544.640474537</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>39760</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>0.509999990463257</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>0.499000012874603</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1299" t="s">
+        <v>577</v>
+      </c>
+      <c r="H1299" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -35979,7 +35979,7 @@
     </row>
     <row r="1299">
       <c r="A1299" s="1" t="n">
-        <v>45544.640474537</v>
+        <v>45544.2916666667</v>
       </c>
       <c r="B1299" t="n">
         <v>39760</v>
@@ -36000,6 +36000,32 @@
         <v>577</v>
       </c>
       <c r="H1299" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="1" t="n">
+        <v>45545.6201388889</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>21451</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>0.509999990463257</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>0.509999990463257</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1300" t="s">
+        <v>577</v>
+      </c>
+      <c r="H1300" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36005,7 +36005,7 @@
     </row>
     <row r="1300">
       <c r="A1300" s="1" t="n">
-        <v>45545.6201388889</v>
+        <v>45545.2916666667</v>
       </c>
       <c r="B1300" t="n">
         <v>21451</v>
@@ -36026,6 +36026,32 @@
         <v>577</v>
       </c>
       <c r="H1300" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="1" t="n">
+        <v>45546.6495486111</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>12187</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>0.509999990463257</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>0.509999990463257</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>0.492000013589859</v>
+      </c>
+      <c r="G1301" t="s">
+        <v>586</v>
+      </c>
+      <c r="H1301" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36031,7 +36031,7 @@
     </row>
     <row r="1301">
       <c r="A1301" s="1" t="n">
-        <v>45546.6495486111</v>
+        <v>45546.2916666667</v>
       </c>
       <c r="B1301" t="n">
         <v>12187</v>
@@ -36040,7 +36040,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="D1301" t="n">
-        <v>0.5</v>
+        <v>0.492000013589859</v>
       </c>
       <c r="E1301" t="n">
         <v>0.509999990463257</v>
@@ -36052,6 +36052,32 @@
         <v>586</v>
       </c>
       <c r="H1301" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="1" t="n">
+        <v>45547.6495949074</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>341304</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>0.529999971389771</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>0.512000024318695</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>0.45100000500679</v>
+      </c>
+      <c r="G1302" t="s">
+        <v>603</v>
+      </c>
+      <c r="H1302" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36057,7 +36057,7 @@
     </row>
     <row r="1302">
       <c r="A1302" s="1" t="n">
-        <v>45547.6495949074</v>
+        <v>45547.2916666667</v>
       </c>
       <c r="B1302" t="n">
         <v>341304</v>
@@ -36078,6 +36078,32 @@
         <v>603</v>
       </c>
       <c r="H1302" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="1" t="n">
+        <v>45548.649849537</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>91244</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>0.46000000834465</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>0.46000000834465</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1303" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1303" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="627">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1890,6 +1890,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.529999971389771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.421999990940094</t>
   </si>
 </sst>
 </file>
@@ -36083,7 +36086,7 @@
     </row>
     <row r="1303">
       <c r="A1303" s="1" t="n">
-        <v>45548.649849537</v>
+        <v>45548.2916666667</v>
       </c>
       <c r="B1303" t="n">
         <v>91244</v>
@@ -36104,6 +36107,32 @@
         <v>616</v>
       </c>
       <c r="H1303" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="1" t="n">
+        <v>45551.6494328704</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>184330</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>0.433999985456467</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>0.400000005960464</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>0.409999996423721</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>0.421999990940094</v>
+      </c>
+      <c r="G1304" t="s">
+        <v>626</v>
+      </c>
+      <c r="H1304" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="628">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1893,6 +1893,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.421999990940094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.421000003814697</t>
   </si>
 </sst>
 </file>
@@ -36112,7 +36115,7 @@
     </row>
     <row r="1304">
       <c r="A1304" s="1" t="n">
-        <v>45551.6494328704</v>
+        <v>45551.2916666667</v>
       </c>
       <c r="B1304" t="n">
         <v>184330</v>
@@ -36133,6 +36136,32 @@
         <v>626</v>
       </c>
       <c r="H1304" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="1" t="n">
+        <v>45552.6373958333</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>68363</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>0.439000010490417</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>0.405000001192093</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>0.421000003814697</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>0.421000003814697</v>
+      </c>
+      <c r="G1305" t="s">
+        <v>627</v>
+      </c>
+      <c r="H1305" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="629">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1896,6 +1896,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.421000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.404000014066696</t>
   </si>
 </sst>
 </file>
@@ -36141,7 +36144,7 @@
     </row>
     <row r="1305">
       <c r="A1305" s="1" t="n">
-        <v>45552.6373958333</v>
+        <v>45552.2916666667</v>
       </c>
       <c r="B1305" t="n">
         <v>68363</v>
@@ -36162,6 +36165,32 @@
         <v>627</v>
       </c>
       <c r="H1305" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="1" t="n">
+        <v>45553.6493402778</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>24500</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>0.419999986886978</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>0.404000014066696</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>0.405000001192093</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>0.404000014066696</v>
+      </c>
+      <c r="G1306" t="s">
+        <v>628</v>
+      </c>
+      <c r="H1306" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="630">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1899,6 +1899,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.404000014066696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.375</t>
   </si>
 </sst>
 </file>
@@ -36170,7 +36173,7 @@
     </row>
     <row r="1306">
       <c r="A1306" s="1" t="n">
-        <v>45553.6493402778</v>
+        <v>45553.2916666667</v>
       </c>
       <c r="B1306" t="n">
         <v>24500</v>
@@ -36191,6 +36194,32 @@
         <v>628</v>
       </c>
       <c r="H1306" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="1" t="n">
+        <v>45554.6497453704</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>130480</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>0.412999987602234</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>0.370000004768372</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>0.412999987602234</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1307" t="s">
+        <v>629</v>
+      </c>
+      <c r="H1307" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="631">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1902,6 +1902,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.398000001907349</t>
   </si>
 </sst>
 </file>
@@ -36199,7 +36202,7 @@
     </row>
     <row r="1307">
       <c r="A1307" s="1" t="n">
-        <v>45554.6497453704</v>
+        <v>45554.2916666667</v>
       </c>
       <c r="B1307" t="n">
         <v>130480</v>
@@ -36220,6 +36223,32 @@
         <v>629</v>
       </c>
       <c r="H1307" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="1" t="n">
+        <v>45555.649375</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>314883</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>0.40599998831749</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>0.349999994039536</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>0.384999990463257</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>0.398000001907349</v>
+      </c>
+      <c r="G1308" t="s">
+        <v>630</v>
+      </c>
+      <c r="H1308" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="632">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1905,6 +1905,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.398000001907349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389999985694885</t>
   </si>
 </sst>
 </file>
@@ -36228,7 +36231,7 @@
     </row>
     <row r="1308">
       <c r="A1308" s="1" t="n">
-        <v>45555.649375</v>
+        <v>45555.2916666667</v>
       </c>
       <c r="B1308" t="n">
         <v>314883</v>
@@ -36249,6 +36252,32 @@
         <v>630</v>
       </c>
       <c r="H1308" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="1" t="n">
+        <v>45558.6496180556</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>110244</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>0.398000001907349</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>0.379999995231628</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>0.391000002622604</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>0.389999985694885</v>
+      </c>
+      <c r="G1309" t="s">
+        <v>631</v>
+      </c>
+      <c r="H1309" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="633">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1908,6 +1908,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.389999985694885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.384999990463257</t>
   </si>
 </sst>
 </file>
@@ -36257,7 +36260,7 @@
     </row>
     <row r="1309">
       <c r="A1309" s="1" t="n">
-        <v>45558.6496180556</v>
+        <v>45558.2916666667</v>
       </c>
       <c r="B1309" t="n">
         <v>110244</v>
@@ -36278,6 +36281,32 @@
         <v>631</v>
       </c>
       <c r="H1309" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="1" t="n">
+        <v>45559.6445601852</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>40952</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>0.388999998569489</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>0.379999995231628</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>0.384999990463257</v>
+      </c>
+      <c r="G1310" t="s">
+        <v>632</v>
+      </c>
+      <c r="H1310" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="634">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1911,6 +1911,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.384999990463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.395999997854233</t>
   </si>
 </sst>
 </file>
@@ -36286,7 +36289,7 @@
     </row>
     <row r="1310">
       <c r="A1310" s="1" t="n">
-        <v>45559.6445601852</v>
+        <v>45559.2916666667</v>
       </c>
       <c r="B1310" t="n">
         <v>40952</v>
@@ -36307,6 +36310,32 @@
         <v>632</v>
       </c>
       <c r="H1310" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="1" t="n">
+        <v>45560.6493981481</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>165378</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>0.414000004529953</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>0.388000011444092</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>0.389999985694885</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>0.395999997854233</v>
+      </c>
+      <c r="G1311" t="s">
+        <v>633</v>
+      </c>
+      <c r="H1311" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="635">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1914,6 +1914,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.395999997854233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379999995231628</t>
   </si>
 </sst>
 </file>
@@ -36315,7 +36318,7 @@
     </row>
     <row r="1311">
       <c r="A1311" s="1" t="n">
-        <v>45560.6493981481</v>
+        <v>45560.2916666667</v>
       </c>
       <c r="B1311" t="n">
         <v>165378</v>
@@ -36336,6 +36339,32 @@
         <v>633</v>
       </c>
       <c r="H1311" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="1" t="n">
+        <v>45561.6456597222</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>27621</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>0.40200001001358</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>0.379999995231628</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>0.389999985694885</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>0.379999995231628</v>
+      </c>
+      <c r="G1312" t="s">
+        <v>634</v>
+      </c>
+      <c r="H1312" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="636">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1917,6 +1917,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.379999995231628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38400000333786</t>
   </si>
 </sst>
 </file>
@@ -36344,7 +36347,7 @@
     </row>
     <row r="1312">
       <c r="A1312" s="1" t="n">
-        <v>45561.6456597222</v>
+        <v>45561.2916666667</v>
       </c>
       <c r="B1312" t="n">
         <v>27621</v>
@@ -36356,7 +36359,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="E1312" t="n">
-        <v>0.389999985694885</v>
+        <v>0.40200001001358</v>
       </c>
       <c r="F1312" t="n">
         <v>0.379999995231628</v>
@@ -36365,6 +36368,32 @@
         <v>634</v>
       </c>
       <c r="H1312" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="1" t="n">
+        <v>45562.6494328704</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>30266</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>0.395999997854233</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>0.384999990463257</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>0.384999990463257</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>0.38400000333786</v>
+      </c>
+      <c r="G1313" t="s">
+        <v>635</v>
+      </c>
+      <c r="H1313" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36373,16 +36373,16 @@
     </row>
     <row r="1313">
       <c r="A1313" s="1" t="n">
-        <v>45562.6494328704</v>
+        <v>45562.2916666667</v>
       </c>
       <c r="B1313" t="n">
         <v>30266</v>
       </c>
       <c r="C1313" t="n">
-        <v>0.395999997854233</v>
+        <v>0.412000000476837</v>
       </c>
       <c r="D1313" t="n">
-        <v>0.384999990463257</v>
+        <v>0.38400000333786</v>
       </c>
       <c r="E1313" t="n">
         <v>0.384999990463257</v>
@@ -36394,6 +36394,32 @@
         <v>635</v>
       </c>
       <c r="H1313" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="1" t="n">
+        <v>45565.6496412037</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>359249</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>0.439000010490417</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>0.365000009536743</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>0.384999990463257</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1314" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1314" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36399,7 +36399,7 @@
     </row>
     <row r="1314">
       <c r="A1314" s="1" t="n">
-        <v>45565.6496412037</v>
+        <v>45565.2916666667</v>
       </c>
       <c r="B1314" t="n">
         <v>359249</v>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36423,6 +36423,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1315">
+      <c r="A1315" s="1" t="n">
+        <v>45566.2916666667</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1315" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1315" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36449,6 +36449,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1316">
+      <c r="A1316" s="1" t="n">
+        <v>45567.2916666667</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1316" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1316" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36475,6 +36475,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1317">
+      <c r="A1317" s="1" t="n">
+        <v>45568.2916666667</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1317" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1317" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36501,6 +36501,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1318">
+      <c r="A1318" s="1" t="n">
+        <v>45569.2916666667</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1318" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1318" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36527,6 +36527,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1319">
+      <c r="A1319" s="1" t="n">
+        <v>45572.2916666667</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1319" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1319" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36553,6 +36553,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1320">
+      <c r="A1320" s="1" t="n">
+        <v>45573.2916666667</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1320" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1320" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36579,6 +36579,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1321">
+      <c r="A1321" s="1" t="n">
+        <v>45574.2916666667</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1321" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1321" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36605,6 +36605,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1322">
+      <c r="A1322" s="1" t="n">
+        <v>45575.2916666667</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1322" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1322" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36631,6 +36631,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1323">
+      <c r="A1323" s="1" t="n">
+        <v>45576.2916666667</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1323" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1323" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36657,6 +36657,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1324">
+      <c r="A1324" s="1" t="n">
+        <v>45579.2916666667</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1324" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1324" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36683,6 +36683,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1325">
+      <c r="A1325" s="1" t="n">
+        <v>45580.2916666667</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1325" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1325" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36709,6 +36709,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1326">
+      <c r="A1326" s="1" t="n">
+        <v>45581.2916666667</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1326" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1326" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36735,6 +36735,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1327">
+      <c r="A1327" s="1" t="n">
+        <v>45582.2916666667</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1327" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1327" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36761,6 +36761,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1328">
+      <c r="A1328" s="1" t="n">
+        <v>45583.2916666667</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1328" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1328" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36787,6 +36787,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1329">
+      <c r="A1329" s="1" t="n">
+        <v>45586.2916666667</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1329" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1329" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36813,6 +36813,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1330">
+      <c r="A1330" s="1" t="n">
+        <v>45587.2916666667</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1330" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1330" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="1" t="n">
+        <v>45588.2916666667</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1331" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1331" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36865,6 +36865,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1332">
+      <c r="A1332" s="1" t="n">
+        <v>45589.2916666667</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1332" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1332" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36891,6 +36891,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1333">
+      <c r="A1333" s="1" t="n">
+        <v>45590.2916666667</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1333" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1333" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36917,6 +36917,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1334">
+      <c r="A1334" s="1" t="n">
+        <v>45593.3333333333</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1334" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1334" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36943,6 +36943,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1335">
+      <c r="A1335" s="1" t="n">
+        <v>45594.3333333333</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1335" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1335" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36969,6 +36969,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1336">
+      <c r="A1336" s="1" t="n">
+        <v>45595.3333333333</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1336" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1336" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -36995,6 +36995,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1337">
+      <c r="A1337" s="1" t="n">
+        <v>45596.3333333333</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1337" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1337" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="1" t="n">
+        <v>45597.3333333333</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1338" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1338" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -37047,6 +37047,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1339">
+      <c r="A1339" s="1" t="n">
+        <v>45600.3333333333</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1339" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1339" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -37073,6 +37073,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1340">
+      <c r="A1340" s="1" t="n">
+        <v>45601.3333333333</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1340" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1340" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IE.MI.xlsx
+++ b/data/IE.MI.xlsx
@@ -37099,6 +37099,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1341">
+      <c r="A1341" s="1" t="n">
+        <v>45602.3333333333</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>0.426999986171722</v>
+      </c>
+      <c r="G1341" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1341" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
